--- a/vgg/Acc_loss_log.xlsx
+++ b/vgg/Acc_loss_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +427,7 @@
           <t>Loss</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Acc</t>
         </is>
@@ -435,71 +435,131 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.927137851715088</v>
+        <v>6.946486949920654</v>
       </c>
       <c r="B2" t="n">
-        <v>6.926857948303223</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.6000000238418579</v>
-      </c>
-      <c r="G2" t="n">
+        <v>6.916429042816162</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.861701011657715</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.919070720672607</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.6000000238418579</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.82896900177002</v>
+        <v>6.965902805328369</v>
       </c>
       <c r="B3" t="n">
-        <v>7.015597820281982</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4000000059604645</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4000000059604645</v>
+        <v>7.110836982727051</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.129707336425781</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.409743309020996</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6000000238418579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.848710536956787</v>
+        <v>6.882614612579346</v>
       </c>
       <c r="B4" t="n">
-        <v>6.713000297546387</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="G4" t="n">
+        <v>6.72678804397583</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.972038269042969</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.237839698791504</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.800000011920929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.247036457061768</v>
+        <v>7.356036186218262</v>
       </c>
       <c r="B5" t="n">
-        <v>6.956295967102051</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.800000011920929</v>
+        <v>7.294754028320312</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.216972351074219</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.085426330566406</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6000000238418579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.712801933288574</v>
+        <v>6.807765960693359</v>
       </c>
       <c r="B6" t="n">
-        <v>6.425141334533691</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="G6" t="n">
+        <v>6.442887306213379</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.550773143768311</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.198788642883301</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.800000011920929</v>
       </c>
     </row>
